--- a/0_3_servents.xlsx
+++ b/0_3_servents.xlsx
@@ -2498,7 +2498,11 @@
           <t>メアリー・アニング</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>瑪麗·安寧</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">

--- a/0_3_servents.xlsx
+++ b/0_3_servents.xlsx
@@ -2522,7 +2522,11 @@
           <t>張角</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>張角</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">

--- a/0_3_servents.xlsx
+++ b/0_3_servents.xlsx
@@ -2546,7 +2546,11 @@
           <t>徐福</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>方巿</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr"/>
     </row>
   </sheetData>

--- a/0_3_servents.xlsx
+++ b/0_3_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2553,6 +2553,46 @@
       </c>
       <c r="F76" t="inlineStr"/>
     </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>395</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>杉谷善住坊</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>396</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>テセウス</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/0_3_servents.xlsx
+++ b/0_3_servents.xlsx
@@ -2503,7 +2503,11 @@
           <t>瑪麗·安寧</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>瑪麗．安寧</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
